--- a/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
@@ -91,10 +91,10 @@
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
@@ -1017,25 +1017,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6336206896551724</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L17">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,25 +1043,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6304347826086957</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1121,25 +1121,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5349544072948328</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L21">
         <v>176</v>
       </c>
       <c r="M21">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="10:17">
